--- a/objects.xlsx
+++ b/objects.xlsx
@@ -33842,7 +33842,7 @@
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1114" t="inlineStr">
@@ -33872,7 +33872,7 @@
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1115" t="inlineStr">
@@ -33902,7 +33902,7 @@
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1116" t="inlineStr">
@@ -33932,7 +33932,7 @@
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1117" t="inlineStr">
@@ -33962,7 +33962,7 @@
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1118" t="inlineStr">
@@ -33992,7 +33992,7 @@
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1119" t="inlineStr">
@@ -34022,7 +34022,7 @@
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1120" t="inlineStr">
@@ -34052,7 +34052,7 @@
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1121" t="inlineStr">
@@ -34082,7 +34082,7 @@
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1122" t="inlineStr">
@@ -34112,7 +34112,7 @@
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1123" t="inlineStr">
@@ -34142,7 +34142,7 @@
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1124" t="inlineStr">
@@ -34172,7 +34172,7 @@
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1125" t="inlineStr">
@@ -34202,7 +34202,7 @@
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr">
@@ -34232,7 +34232,7 @@
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr">
@@ -34262,7 +34262,7 @@
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr">
@@ -34292,7 +34292,7 @@
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr">
@@ -34322,7 +34322,7 @@
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr">
@@ -34352,7 +34352,7 @@
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr">
@@ -34502,7 +34502,7 @@
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr">
@@ -34532,7 +34532,7 @@
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr">
@@ -34562,7 +34562,7 @@
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr">
@@ -34592,7 +34592,7 @@
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr">
@@ -34622,7 +34622,7 @@
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr">
@@ -34652,7 +34652,7 @@
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr">
@@ -34682,7 +34682,7 @@
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr">
@@ -34712,7 +34712,7 @@
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr">
@@ -34772,7 +34772,7 @@
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr">
@@ -34802,7 +34802,7 @@
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr">
@@ -34832,7 +34832,7 @@
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr">
@@ -34862,7 +34862,7 @@
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr">
@@ -34892,7 +34892,7 @@
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr">
@@ -34922,7 +34922,7 @@
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr">
@@ -34952,7 +34952,7 @@
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr">
@@ -34982,7 +34982,7 @@
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr">
@@ -35012,7 +35012,7 @@
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr">
@@ -35042,7 +35042,7 @@
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr">
@@ -35072,7 +35072,7 @@
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr">
@@ -35102,7 +35102,7 @@
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>ДГУ - ИТС</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr">
@@ -35372,7 +35372,7 @@
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr">
@@ -35402,7 +35402,7 @@
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr">
@@ -35432,7 +35432,7 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr">
@@ -35462,7 +35462,7 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr">
@@ -35492,7 +35492,7 @@
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr">
@@ -35522,7 +35522,7 @@
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr">
@@ -35552,7 +35552,7 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr">
@@ -35582,7 +35582,7 @@
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr">
@@ -35612,7 +35612,7 @@
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr">
@@ -35642,7 +35642,7 @@
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr">
@@ -35672,7 +35672,7 @@
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr">
@@ -35702,7 +35702,7 @@
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>ДГУ - Сеть</t>
+          <t>ДГУ - Океанский</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr">
